--- a/medicine/Psychotrope/Gooderham_and_Worts/Gooderham_and_Worts.xlsx
+++ b/medicine/Psychotrope/Gooderham_and_Worts/Gooderham_and_Worts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gooderham and Worts est une distillerie canadienne historique dont certains des bâtiments, situés dans le quartier de Toronto aujourd'hui connu sous le nom de Distillery District, sont classés au patrimoine historique du Canada.
 Elle a été fondée James Worts et William Gooderham.
